--- a/file/img_ref_pattern.xlsx
+++ b/file/img_ref_pattern.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repositórios Locais\irap-data-processing\data\contratante\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repositórios Locais\irap-data-processing\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,16 +500,51 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AO1571"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AO1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
